--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>№Поз</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Остаточный ресурс детали,              %</t>
   </si>
   <si>
-    <t>Начальник СПО                                             А.Д. Гавриленко</t>
-  </si>
-  <si>
     <t>Кол-во по ТТН,  шт</t>
   </si>
   <si>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t>Дата поставки  01.02.19 (c остаточным ресурсом 96 %)</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                             А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -916,6 +919,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,23 +943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1252,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1273,29 +1274,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="40"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1326,10 +1327,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>32</v>
@@ -1347,7 +1348,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>4</v>
@@ -1361,7 +1362,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="56"/>
       <c r="E5" s="56">
@@ -1387,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
@@ -1413,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
@@ -1439,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
@@ -1465,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
@@ -1488,10 +1489,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
@@ -1517,7 +1518,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
@@ -1544,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
@@ -1571,7 +1572,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
@@ -1599,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
@@ -1625,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="13">
@@ -1648,10 +1649,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="13">
@@ -1793,14 +1794,33 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
       <c r="A22" s="16"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="31"/>
+      <c r="B22" s="10">
+        <v>43728</v>
+      </c>
+      <c r="C22" s="10">
+        <v>43731</v>
+      </c>
+      <c r="D22" s="10">
+        <v>43735</v>
+      </c>
+      <c r="E22" s="11">
+        <v>416988</v>
+      </c>
+      <c r="F22" s="11">
+        <v>448450</v>
+      </c>
+      <c r="G22" s="46">
+        <f>F22/A$20</f>
+        <v>3.559126984126984E-2</v>
+      </c>
+      <c r="H22" s="93">
+        <f>H21-F22</f>
+        <v>11155078</v>
+      </c>
+      <c r="I22" s="94">
+        <f>1-G22</f>
+        <v>0.96440873015873019</v>
+      </c>
       <c r="J22" s="81"/>
       <c r="K22" s="73"/>
       <c r="L22" s="73"/>
@@ -1926,29 +1946,29 @@
       <c r="D31" s="23"/>
       <c r="E31" s="65">
         <f>SUM(E20:E30)</f>
-        <v>386370</v>
+        <v>803358</v>
       </c>
       <c r="F31" s="64">
         <f>SUM(F20:F30)</f>
-        <v>996472</v>
+        <v>1444922</v>
       </c>
       <c r="G31" s="28">
         <f>SUM(G20:G30)</f>
-        <v>7.9085079365079358E-2</v>
+        <v>0.1146763492063492</v>
       </c>
       <c r="H31" s="24">
         <f>A20-F31</f>
-        <v>11603528</v>
+        <v>11155078</v>
       </c>
       <c r="I31" s="37">
         <f>1-G31</f>
-        <v>0.92091492063492064</v>
+        <v>0.88532365079365083</v>
       </c>
       <c r="J31" s="83"/>
       <c r="K31" s="83"/>
       <c r="L31" s="83"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:11">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1960,13 +1980,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A35" s="104" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A35" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1974,11 +1994,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="101" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="101"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -1992,40 +2012,40 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="99">
+    <row r="37" spans="1:11">
+      <c r="A37" s="106">
         <f>A20-F31</f>
-        <v>11603528</v>
-      </c>
-      <c r="B37" s="100"/>
+        <v>11155078</v>
+      </c>
+      <c r="B37" s="107"/>
       <c r="C37" s="87">
         <f>1-G31</f>
-        <v>0.92091492063492064</v>
+        <v>0.88532365079365083</v>
       </c>
       <c r="D37" s="25">
         <f>(C37/0.8)*100</f>
-        <v>115.11436507936507</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-    </row>
-    <row r="38" spans="1:12">
+        <v>110.66545634920635</v>
+      </c>
+      <c r="E37" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:11">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2040,7 +2060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6">
+    <row r="40" spans="1:11" ht="15.6">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2052,7 +2072,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:11">
       <c r="A41" s="69"/>
       <c r="B41" s="69"/>
       <c r="C41" s="69"/>
@@ -2061,10 +2081,10 @@
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="98"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="I41" s="104"/>
+      <c r="J41" s="105"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="70"/>
       <c r="B42" s="71"/>
       <c r="C42" s="71"/>
@@ -2074,7 +2094,7 @@
       <c r="G42" s="72"/>
       <c r="H42" s="71"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:11">
       <c r="A43" s="70"/>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
@@ -2084,7 +2104,7 @@
       <c r="G43" s="72"/>
       <c r="H43" s="71"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:11">
       <c r="A44" s="70"/>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
@@ -2094,7 +2114,7 @@
       <c r="G44" s="72"/>
       <c r="H44" s="71"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:11">
       <c r="A45" s="70"/>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
@@ -2104,7 +2124,7 @@
       <c r="G45" s="72"/>
       <c r="H45" s="71"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:11">
       <c r="A46" s="70"/>
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
@@ -2114,7 +2134,7 @@
       <c r="G46" s="72"/>
       <c r="H46" s="71"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="A47" s="70"/>
       <c r="B47" s="71"/>
       <c r="C47" s="73"/>
@@ -2124,7 +2144,7 @@
       <c r="G47" s="73"/>
       <c r="H47" s="73"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:11">
       <c r="A48" s="70"/>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
@@ -2156,9 +2176,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="106"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="102"/>
       <c r="E51" s="75"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2175,8 +2195,8 @@
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="69"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="98"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="105"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="70"/>
@@ -2187,8 +2207,8 @@
       <c r="F53" s="72"/>
       <c r="G53" s="72"/>
       <c r="H53" s="71"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="70"/>
@@ -2199,8 +2219,8 @@
       <c r="F54" s="73"/>
       <c r="G54" s="73"/>
       <c r="H54" s="73"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2213,24 +2233,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="97"/>
-      <c r="C60" s="98"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="97"/>
-      <c r="C67" s="98"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="105"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
-  <mergeCells count="13">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G37:L37"/>
+  <mergeCells count="12">
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2238,6 +2252,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
@@ -840,8 +840,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -920,20 +918,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,6 +928,26 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1251,10 +1255,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1274,29 +1281,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="40"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1358,7 +1365,7 @@
       <c r="A5" s="53">
         <v>1</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="64" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1377,14 +1384,14 @@
       <c r="I5" s="58"/>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
-      <c r="L5" s="84"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="57">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1403,14 +1410,14 @@
       <c r="I6" s="59"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="85"/>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="57">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="65" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1429,14 +1436,14 @@
       <c r="I7" s="59"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="85"/>
+      <c r="L7" s="83"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="57">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="65" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1455,14 +1462,14 @@
       <c r="I8" s="59"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="85"/>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="66" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1481,14 +1488,14 @@
       <c r="I9" s="60"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="85"/>
+      <c r="L9" s="83"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="57">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="65" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1507,14 +1514,14 @@
       <c r="I10" s="59"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="85"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="65" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1533,7 +1540,7 @@
       <c r="I11" s="60"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="85"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13">
@@ -1541,7 +1548,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1560,7 +1567,7 @@
       <c r="I12" s="60"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="85"/>
+      <c r="L12" s="83"/>
       <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13">
@@ -1568,7 +1575,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1589,14 +1596,14 @@
       <c r="I13" s="60"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="85"/>
+      <c r="L13" s="83"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="57">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1615,14 +1622,14 @@
       <c r="I14" s="60"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="85"/>
+      <c r="L14" s="83"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="57">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1641,14 +1648,14 @@
       <c r="I15" s="60"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="85"/>
+      <c r="L15" s="83"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="57">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="94" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1666,14 +1673,14 @@
         <v>0</v>
       </c>
       <c r="H16" s="63"/>
-      <c r="I16" s="95"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="85"/>
+      <c r="L16" s="83"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="77"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1685,7 +1692,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="76" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="14"/>
@@ -1695,9 +1702,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A19" s="47" t="s">
@@ -1727,64 +1734,64 @@
       <c r="I19" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="86">
+      <c r="A20" s="84">
         <f>E5*700000</f>
         <v>12600000</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89">
+      <c r="B20" s="86"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87">
         <v>555647</v>
       </c>
       <c r="G20" s="46">
         <f>F20/A$20</f>
         <v>4.4098968253968251E-2</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="91">
         <f>A20-F20</f>
         <v>12044353</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="92">
         <f>1-G20</f>
         <v>0.95590103174603169</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="90">
+      <c r="B21" s="88">
         <v>43588</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C21" s="88">
         <v>43590</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="88">
         <v>43595</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="89">
         <v>386370</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="89">
         <v>440825</v>
       </c>
       <c r="G21" s="46">
         <f>F21/A$20</f>
         <v>3.4986111111111114E-2</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="91">
         <f>H20-F21</f>
         <v>11603528</v>
       </c>
-      <c r="I21" s="94">
+      <c r="I21" s="92">
         <f>1-G21</f>
         <v>0.96501388888888884</v>
       </c>
@@ -1813,17 +1820,17 @@
         <f>F22/A$20</f>
         <v>3.559126984126984E-2</v>
       </c>
-      <c r="H22" s="93">
+      <c r="H22" s="91">
         <f>H21-F22</f>
         <v>11155078</v>
       </c>
-      <c r="I22" s="94">
+      <c r="I22" s="92">
         <f>1-G22</f>
         <v>0.96440873015873019</v>
       </c>
-      <c r="J22" s="81"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="16"/>
@@ -1835,8 +1842,8 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1849,8 +1856,8 @@
       <c r="G24" s="29"/>
       <c r="H24" s="34"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="80"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1863,8 +1870,8 @@
       <c r="G25" s="29"/>
       <c r="H25" s="34"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1877,8 +1884,8 @@
       <c r="G26" s="29"/>
       <c r="H26" s="34"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -1891,8 +1898,8 @@
       <c r="G27" s="29"/>
       <c r="H27" s="34"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -1905,8 +1912,8 @@
       <c r="G28" s="30"/>
       <c r="H28" s="34"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -1919,8 +1926,8 @@
       <c r="G29" s="29"/>
       <c r="H29" s="34"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
@@ -1944,11 +1951,11 @@
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="65">
+      <c r="E31" s="107">
         <f>SUM(E20:E30)</f>
         <v>803358</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="108">
         <f>SUM(F20:F30)</f>
         <v>1444922</v>
       </c>
@@ -1964,9 +1971,9 @@
         <f>1-G31</f>
         <v>0.88532365079365083</v>
       </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -1981,12 +1988,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1995,10 +2002,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="108"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2013,12 +2020,12 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="106">
+      <c r="A37" s="98">
         <f>A20-F31</f>
         <v>11155078</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="87">
+      <c r="B37" s="99"/>
+      <c r="C37" s="85">
         <f>1-G31</f>
         <v>0.88532365079365083</v>
       </c>
@@ -2026,14 +2033,14 @@
         <f>(C37/0.8)*100</f>
         <v>110.66545634920635</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="E37" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2073,113 +2080,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="105"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="97"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="71"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="69"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="70"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="71"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="69"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="71"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="70"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="71"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="69"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="70"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="71"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="69"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="70"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="70"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="71"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="69"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="70"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="71"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="69"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="70"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="71"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="69"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="75"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="73"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2187,40 +2194,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="105"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="97"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="70"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="101"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="70"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2233,18 +2240,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="104"/>
-      <c r="C60" s="105"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="97"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="104"/>
-      <c r="C67" s="105"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="97"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2252,16 +2264,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="12" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
@@ -689,7 +689,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -707,7 +707,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,18 +714,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -739,28 +732,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,15 +873,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,6 +889,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,24 +920,58 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,8 +1285,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1281,34 +1306,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1319,79 +1344,79 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="M3" s="14"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="53">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="52" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44">
         <v>18</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44">
         <f>E5-F5</f>
         <v>18</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="82"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="57">
+      <c r="A6" s="45">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1401,23 +1426,23 @@
       <c r="E6" s="9">
         <v>18</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>18</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="83"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="57">
+      <c r="A7" s="45">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="53" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1427,23 +1452,23 @@
       <c r="E7" s="9">
         <v>22</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="59"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="83"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="57">
+      <c r="A8" s="45">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1453,23 +1478,23 @@
       <c r="E8" s="9">
         <v>22</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="59"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="83"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="57">
+      <c r="A9" s="45">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="54" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1479,23 +1504,23 @@
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="60"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="83"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="57">
+      <c r="A10" s="45">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="53" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1505,23 +1530,23 @@
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="59"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="83"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="57">
+      <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="53" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1531,24 +1556,24 @@
       <c r="E11" s="9">
         <v>40</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="60"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="36"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="57">
+      <c r="A12" s="45">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1558,24 +1583,24 @@
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="36"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="57">
+      <c r="A13" s="45">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="54" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1585,25 +1610,25 @@
       <c r="E13" s="9">
         <v>7</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="83"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="57">
+      <c r="A14" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1613,74 +1638,74 @@
       <c r="E14" s="9">
         <v>30</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="60"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="83"/>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="57">
+      <c r="A15" s="45">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>40</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="60"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="83"/>
+      <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="57">
+      <c r="A16" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="79" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>120</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="21">
         <v>120</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="93"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="83"/>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="75"/>
-      <c r="B17" s="74"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1692,106 +1717,106 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="84">
+      <c r="A20" s="72">
         <f>E5*700000</f>
         <v>12600000</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87">
+      <c r="B20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103">
         <v>555647</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="34">
         <f>F20/A$20</f>
         <v>4.4098968253968251E-2</v>
       </c>
-      <c r="H20" s="91">
+      <c r="H20" s="109">
         <f>A20-F20</f>
         <v>12044353</v>
       </c>
-      <c r="I20" s="92">
+      <c r="I20" s="77">
         <f>1-G20</f>
         <v>0.95590103174603169</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="88">
+      <c r="A21" s="40"/>
+      <c r="B21" s="75">
         <v>43588</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C21" s="75">
         <v>43590</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="75">
         <v>43595</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="104">
         <v>386370</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="104">
         <v>440825</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="34">
         <f>F21/A$20</f>
         <v>3.4986111111111114E-2</v>
       </c>
-      <c r="H21" s="91">
+      <c r="H21" s="109">
         <f>H20-F21</f>
         <v>11603528</v>
       </c>
-      <c r="I21" s="92">
+      <c r="I21" s="77">
         <f>1-G21</f>
         <v>0.96501388888888884</v>
       </c>
@@ -1800,7 +1825,7 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="16"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="10">
         <v>43728</v>
       </c>
@@ -1810,170 +1835,189 @@
       <c r="D22" s="10">
         <v>43735</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="105">
         <v>416988</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="105">
         <v>448450</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="34">
         <f>F22/A$20</f>
         <v>3.559126984126984E-2</v>
       </c>
-      <c r="H22" s="91">
+      <c r="H22" s="109">
         <f>H21-F22</f>
         <v>11155078</v>
       </c>
-      <c r="I22" s="92">
+      <c r="I22" s="77">
         <f>1-G22</f>
         <v>0.96440873015873019</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="16"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="94">
+        <v>43871</v>
+      </c>
+      <c r="C23" s="94">
+        <v>43873</v>
+      </c>
+      <c r="D23" s="94">
+        <v>43874</v>
+      </c>
+      <c r="E23" s="106">
+        <v>419904</v>
+      </c>
+      <c r="F23" s="106">
+        <v>442056</v>
+      </c>
+      <c r="G23" s="34">
+        <f>F23/A$20</f>
+        <v>3.5083809523809524E-2</v>
+      </c>
+      <c r="H23" s="109">
+        <f>H22-F23</f>
+        <v>10713022</v>
+      </c>
+      <c r="I23" s="77">
+        <f>1-G23</f>
+        <v>0.96491619047619048</v>
+      </c>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="16"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="16"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="16"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="16"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="16"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="33"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="102"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="107">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="81">
         <f>SUM(E20:E30)</f>
-        <v>803358</v>
-      </c>
-      <c r="F31" s="108">
+        <v>1223262</v>
+      </c>
+      <c r="F31" s="82">
         <f>SUM(F20:F30)</f>
-        <v>1444922</v>
-      </c>
-      <c r="G31" s="28">
+        <v>1886978</v>
+      </c>
+      <c r="G31" s="22">
         <f>SUM(G20:G30)</f>
-        <v>0.1146763492063492</v>
-      </c>
-      <c r="H31" s="24">
+        <v>0.14976015873015872</v>
+      </c>
+      <c r="H31" s="19">
         <f>A20-F31</f>
-        <v>11155078</v>
-      </c>
-      <c r="I31" s="37">
+        <v>10713022</v>
+      </c>
+      <c r="I31" s="25">
         <f>1-G31</f>
-        <v>0.88532365079365083</v>
-      </c>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
+        <v>0.85023984126984131</v>
+      </c>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -1988,12 +2032,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2002,14 +2046,14 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="93"/>
+      <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="1"/>
@@ -2020,27 +2064,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="98">
+      <c r="A37" s="91">
         <f>A20-F31</f>
-        <v>11155078</v>
-      </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="85">
+        <v>10713022</v>
+      </c>
+      <c r="B37" s="92"/>
+      <c r="C37" s="73">
         <f>1-G31</f>
-        <v>0.88532365079365083</v>
-      </c>
-      <c r="D37" s="25">
+        <v>0.85023984126984131</v>
+      </c>
+      <c r="D37" s="20">
         <f>(C37/0.8)*100</f>
-        <v>110.66545634920635</v>
-      </c>
-      <c r="E37" s="95" t="s">
+        <v>106.27998015873015</v>
+      </c>
+      <c r="E37" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2080,113 +2124,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="97"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="68"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="69"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="57"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="68"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="69"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="57"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="68"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="69"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="57"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="68"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="69"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="57"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="68"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="69"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="57"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="68"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="68"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="69"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="57"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="68"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="69"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="57"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="68"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="69"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="73"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2194,40 +2238,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="67"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="97"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="90"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="68"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="68"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2240,23 +2284,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="96"/>
-      <c r="C60" s="97"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="90"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="96"/>
-      <c r="C67" s="97"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2264,6 +2303,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B684964E-E622-4418-8CA5-D17E80E9C9B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -122,15 +130,9 @@
     <t>Воронка</t>
   </si>
   <si>
-    <t>Кол-во         непригодных,      шт</t>
-  </si>
-  <si>
     <t>Фактически пригодных деталей,    шт</t>
   </si>
   <si>
-    <t>Остаточный ресурс детали,              %</t>
-  </si>
-  <si>
     <t>Кол-во по ТТН,  шт</t>
   </si>
   <si>
@@ -162,12 +164,18 @@
   </si>
   <si>
     <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Кол-во непригодных, шт.</t>
+  </si>
+  <si>
+    <t>Остаточный ресурс детали, %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -175,7 +183,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -895,6 +903,60 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,60 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1069,6 +1077,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1104,6 +1129,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1279,56 +1321,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:I23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1336,7 +1378,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1348,7 +1390,7 @@
       <c r="K3" s="29"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
@@ -1359,19 +1401,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>33</v>
-      </c>
       <c r="H4" s="32" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>3</v>
@@ -1380,13 +1422,13 @@
         <v>25</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
         <v>1</v>
       </c>
@@ -1394,7 +1436,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44">
@@ -1411,7 +1453,7 @@
       <c r="K5" s="42"/>
       <c r="L5" s="70"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
         <f>A5+1</f>
         <v>2</v>
@@ -1420,7 +1462,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
@@ -1437,7 +1479,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="71"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
@@ -1446,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
@@ -1463,7 +1505,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="71"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="45">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1472,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
@@ -1489,7 +1531,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="71"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1498,7 +1540,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
@@ -1515,16 +1557,16 @@
       <c r="K9" s="9"/>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
@@ -1541,7 +1583,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1550,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
@@ -1568,7 +1610,7 @@
       <c r="L11" s="71"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="45">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1577,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
@@ -1595,7 +1637,7 @@
       <c r="L12" s="71"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="45">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1604,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
@@ -1623,7 +1665,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1632,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
@@ -1649,7 +1691,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="45">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1658,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="12">
@@ -1675,16 +1717,16 @@
       <c r="K15" s="9"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="12">
@@ -1703,7 +1745,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="63"/>
       <c r="B17" s="62"/>
       <c r="C17" s="1"/>
@@ -1715,7 +1757,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="64" t="s">
         <v>10</v>
@@ -1731,7 +1773,7 @@
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
     </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>22</v>
       </c>
@@ -1763,7 +1805,7 @@
       <c r="K19" s="66"/>
       <c r="L19" s="66"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="72">
         <f>E5*700000</f>
         <v>12600000</v>
@@ -1771,15 +1813,15 @@
       <c r="B20" s="74"/>
       <c r="C20" s="76"/>
       <c r="D20" s="74"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103">
+      <c r="E20" s="92"/>
+      <c r="F20" s="92">
         <v>555647</v>
       </c>
       <c r="G20" s="34">
         <f>F20/A$20</f>
         <v>4.4098968253968251E-2</v>
       </c>
-      <c r="H20" s="109">
+      <c r="H20" s="98">
         <f>A20-F20</f>
         <v>12044353</v>
       </c>
@@ -1791,7 +1833,7 @@
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="75">
         <v>43588</v>
@@ -1802,17 +1844,17 @@
       <c r="D21" s="75">
         <v>43595</v>
       </c>
-      <c r="E21" s="104">
+      <c r="E21" s="93">
         <v>386370</v>
       </c>
-      <c r="F21" s="104">
+      <c r="F21" s="93">
         <v>440825</v>
       </c>
       <c r="G21" s="34">
         <f>F21/A$20</f>
         <v>3.4986111111111114E-2</v>
       </c>
-      <c r="H21" s="109">
+      <c r="H21" s="98">
         <f>H20-F21</f>
         <v>11603528</v>
       </c>
@@ -1824,7 +1866,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="10">
         <v>43728</v>
@@ -1835,17 +1877,17 @@
       <c r="D22" s="10">
         <v>43735</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="94">
         <v>416988</v>
       </c>
-      <c r="F22" s="105">
+      <c r="F22" s="94">
         <v>448450</v>
       </c>
       <c r="G22" s="34">
         <f>F22/A$20</f>
         <v>3.559126984126984E-2</v>
       </c>
-      <c r="H22" s="109">
+      <c r="H22" s="98">
         <f>H21-F22</f>
         <v>11155078</v>
       </c>
@@ -1857,28 +1899,28 @@
       <c r="K22" s="59"/>
       <c r="L22" s="59"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="94">
+      <c r="B23" s="83">
         <v>43871</v>
       </c>
-      <c r="C23" s="94">
+      <c r="C23" s="83">
         <v>43873</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="83">
         <v>43874</v>
       </c>
-      <c r="E23" s="106">
+      <c r="E23" s="95">
         <v>419904</v>
       </c>
-      <c r="F23" s="106">
+      <c r="F23" s="95">
         <v>442056</v>
       </c>
       <c r="G23" s="34">
         <f>F23/A$20</f>
         <v>3.5083809523809524E-2</v>
       </c>
-      <c r="H23" s="109">
+      <c r="H23" s="98">
         <f>H22-F23</f>
         <v>10713022</v>
       </c>
@@ -1890,105 +1932,124 @@
       <c r="K23" s="67"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="23"/>
+      <c r="B24" s="83">
+        <v>43980</v>
+      </c>
+      <c r="C24" s="83">
+        <v>43982</v>
+      </c>
+      <c r="D24" s="83">
+        <v>43983</v>
+      </c>
+      <c r="E24" s="94">
+        <v>431568</v>
+      </c>
+      <c r="F24" s="94">
+        <v>452441</v>
+      </c>
+      <c r="G24" s="85">
+        <f>F24/A$20</f>
+        <v>3.5908015873015876E-2</v>
+      </c>
+      <c r="H24" s="98">
+        <f>H23-F24</f>
+        <v>10260581</v>
+      </c>
+      <c r="I24" s="23">
+        <f>1-G24</f>
+        <v>0.96409198412698416</v>
+      </c>
       <c r="J24" s="67"/>
       <c r="K24" s="68"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="110"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="23"/>
       <c r="J25" s="67"/>
       <c r="K25" s="67"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="110"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="23"/>
       <c r="J26" s="67"/>
       <c r="K26" s="67"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="110"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="23"/>
       <c r="J27" s="67"/>
       <c r="K27" s="67"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="98"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="87"/>
       <c r="J28" s="67"/>
       <c r="K28" s="67"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="98"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="87"/>
       <c r="J29" s="67"/>
       <c r="K29" s="67"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="102"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
@@ -1997,29 +2058,29 @@
       <c r="D31" s="18"/>
       <c r="E31" s="81">
         <f>SUM(E20:E30)</f>
-        <v>1223262</v>
+        <v>1654830</v>
       </c>
       <c r="F31" s="82">
         <f>SUM(F20:F30)</f>
-        <v>1886978</v>
+        <v>2339419</v>
       </c>
       <c r="G31" s="22">
         <f>SUM(G20:G30)</f>
-        <v>0.14976015873015872</v>
+        <v>0.18566817460317458</v>
       </c>
       <c r="H31" s="19">
         <f>A20-F31</f>
-        <v>10713022</v>
+        <v>10260581</v>
       </c>
       <c r="I31" s="25">
         <f>1-G31</f>
-        <v>0.85023984126984131</v>
+        <v>0.81433182539682547</v>
       </c>
       <c r="J31" s="69"/>
       <c r="K31" s="69"/>
       <c r="L31" s="69"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2031,13 +2092,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="84" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2045,11 +2106,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="93" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="93"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
@@ -2063,22 +2124,22 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="91">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="109">
         <f>A20-F31</f>
-        <v>10713022</v>
-      </c>
-      <c r="B37" s="92"/>
+        <v>10260581</v>
+      </c>
+      <c r="B37" s="110"/>
       <c r="C37" s="73">
         <f>1-G31</f>
-        <v>0.85023984126984131</v>
+        <v>0.81433182539682547</v>
       </c>
       <c r="D37" s="20">
         <f>(C37/0.8)*100</f>
-        <v>106.27998015873015</v>
+        <v>101.79147817460317</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
@@ -2086,17 +2147,17 @@
       <c r="I37" s="80"/>
       <c r="J37" s="80"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2111,7 +2172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2123,7 +2184,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -2132,10 +2193,10 @@
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="90"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="57"/>
       <c r="C42" s="57"/>
@@ -2145,7 +2206,7 @@
       <c r="G42" s="58"/>
       <c r="H42" s="57"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="57"/>
       <c r="C43" s="57"/>
@@ -2155,7 +2216,7 @@
       <c r="G43" s="58"/>
       <c r="H43" s="57"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="57"/>
       <c r="C44" s="57"/>
@@ -2165,7 +2226,7 @@
       <c r="G44" s="58"/>
       <c r="H44" s="57"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
       <c r="B45" s="57"/>
       <c r="C45" s="57"/>
@@ -2175,7 +2236,7 @@
       <c r="G45" s="58"/>
       <c r="H45" s="57"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
@@ -2185,7 +2246,7 @@
       <c r="G46" s="58"/>
       <c r="H46" s="57"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
       <c r="B47" s="57"/>
       <c r="C47" s="59"/>
@@ -2195,7 +2256,7 @@
       <c r="G47" s="59"/>
       <c r="H47" s="59"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
@@ -2205,7 +2266,7 @@
       <c r="G48" s="58"/>
       <c r="H48" s="57"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
       <c r="B49" s="57"/>
       <c r="C49" s="57"/>
@@ -2215,7 +2276,7 @@
       <c r="G49" s="58"/>
       <c r="H49" s="57"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -2225,11 +2286,11 @@
       <c r="G50" s="58"/>
       <c r="H50" s="57"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="87"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
       <c r="E51" s="61"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2237,7 +2298,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -2246,10 +2307,10 @@
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
       <c r="H52" s="55"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="90"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="107"/>
+      <c r="J52" s="108"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2258,10 +2319,10 @@
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="57"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2270,10 +2331,10 @@
       <c r="F54" s="59"/>
       <c r="G54" s="59"/>
       <c r="H54" s="59"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2283,13 +2344,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="107"/>
+      <c r="C67" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
@@ -2312,7 +2373,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="12" man="1"/>
@@ -2321,12 +2382,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2335,24 +2396,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B684964E-E622-4418-8CA5-D17E80E9C9B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B115685E-F74F-449F-9DE7-6001265B5E9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1327,8 +1327,8 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1818,7 +1818,7 @@
         <v>555647</v>
       </c>
       <c r="G20" s="34">
-        <f>F20/A$20</f>
+        <f t="shared" ref="G20:G26" si="2">F20/A$20</f>
         <v>4.4098968253968251E-2</v>
       </c>
       <c r="H20" s="98">
@@ -1851,7 +1851,7 @@
         <v>440825</v>
       </c>
       <c r="G21" s="34">
-        <f>F21/A$20</f>
+        <f t="shared" si="2"/>
         <v>3.4986111111111114E-2</v>
       </c>
       <c r="H21" s="98">
@@ -1859,8 +1859,8 @@
         <v>11603528</v>
       </c>
       <c r="I21" s="77">
-        <f>1-G21</f>
-        <v>0.96501388888888884</v>
+        <f t="shared" ref="I21:I25" si="3">I20-G21</f>
+        <v>0.92091492063492053</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1884,7 +1884,7 @@
         <v>448450</v>
       </c>
       <c r="G22" s="34">
-        <f>F22/A$20</f>
+        <f t="shared" si="2"/>
         <v>3.559126984126984E-2</v>
       </c>
       <c r="H22" s="98">
@@ -1892,8 +1892,8 @@
         <v>11155078</v>
       </c>
       <c r="I22" s="77">
-        <f>1-G22</f>
-        <v>0.96440873015873019</v>
+        <f t="shared" si="3"/>
+        <v>0.88532365079365072</v>
       </c>
       <c r="J22" s="67"/>
       <c r="K22" s="59"/>
@@ -1917,7 +1917,7 @@
         <v>442056</v>
       </c>
       <c r="G23" s="34">
-        <f>F23/A$20</f>
+        <f t="shared" si="2"/>
         <v>3.5083809523809524E-2</v>
       </c>
       <c r="H23" s="98">
@@ -1925,8 +1925,8 @@
         <v>10713022</v>
       </c>
       <c r="I23" s="77">
-        <f>1-G23</f>
-        <v>0.96491619047619048</v>
+        <f t="shared" si="3"/>
+        <v>0.8502398412698412</v>
       </c>
       <c r="J23" s="67"/>
       <c r="K23" s="67"/>
@@ -1950,16 +1950,16 @@
         <v>452441</v>
       </c>
       <c r="G24" s="85">
-        <f>F24/A$20</f>
+        <f t="shared" si="2"/>
         <v>3.5908015873015876E-2</v>
       </c>
       <c r="H24" s="98">
         <f>H23-F24</f>
         <v>10260581</v>
       </c>
-      <c r="I24" s="23">
-        <f>1-G24</f>
-        <v>0.96409198412698416</v>
+      <c r="I24" s="77">
+        <f t="shared" si="3"/>
+        <v>0.81433182539682536</v>
       </c>
       <c r="J24" s="67"/>
       <c r="K24" s="68"/>
@@ -1967,26 +1967,58 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="83">
+        <v>44120</v>
+      </c>
+      <c r="C25" s="83">
+        <v>44122</v>
+      </c>
+      <c r="D25" s="83">
+        <v>44137</v>
+      </c>
+      <c r="E25" s="94">
+        <v>400950</v>
+      </c>
+      <c r="F25" s="94">
+        <v>438512</v>
+      </c>
+      <c r="G25" s="85">
+        <f t="shared" si="2"/>
+        <v>3.4802539682539685E-2</v>
+      </c>
+      <c r="H25" s="98">
+        <f>H24-F25</f>
+        <v>9822069</v>
+      </c>
+      <c r="I25" s="77">
+        <f t="shared" si="3"/>
+        <v>0.7795292857142857</v>
+      </c>
       <c r="J25" s="67"/>
       <c r="K25" s="67"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="85"/>
+      <c r="B26" s="83">
+        <v>44224</v>
+      </c>
+      <c r="C26" s="83">
+        <v>44227</v>
+      </c>
+      <c r="D26" s="83">
+        <v>44228</v>
+      </c>
+      <c r="E26" s="94">
+        <v>473364</v>
+      </c>
+      <c r="F26" s="94">
+        <v>554457</v>
+      </c>
+      <c r="G26" s="85">
+        <f t="shared" si="2"/>
+        <v>4.4004523809523813E-2</v>
+      </c>
       <c r="H26" s="99"/>
       <c r="I26" s="23"/>
       <c r="J26" s="67"/>
@@ -2058,23 +2090,23 @@
       <c r="D31" s="18"/>
       <c r="E31" s="81">
         <f>SUM(E20:E30)</f>
-        <v>1654830</v>
+        <v>2529144</v>
       </c>
       <c r="F31" s="82">
         <f>SUM(F20:F30)</f>
-        <v>2339419</v>
+        <v>3332388</v>
       </c>
       <c r="G31" s="22">
         <f>SUM(G20:G30)</f>
-        <v>0.18566817460317458</v>
+        <v>0.2644752380952381</v>
       </c>
       <c r="H31" s="19">
         <f>A20-F31</f>
-        <v>10260581</v>
+        <v>9267612</v>
       </c>
       <c r="I31" s="25">
         <f>1-G31</f>
-        <v>0.81433182539682547</v>
+        <v>0.7355247619047619</v>
       </c>
       <c r="J31" s="69"/>
       <c r="K31" s="69"/>
@@ -2127,16 +2159,16 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="109">
         <f>A20-F31</f>
-        <v>10260581</v>
+        <v>9267612</v>
       </c>
       <c r="B37" s="110"/>
       <c r="C37" s="73">
         <f>1-G31</f>
-        <v>0.81433182539682547</v>
+        <v>0.7355247619047619</v>
       </c>
       <c r="D37" s="20">
         <f>(C37/0.8)*100</f>
-        <v>101.79147817460317</v>
+        <v>91.940595238095241</v>
       </c>
       <c r="E37" s="80" t="s">
         <v>42</v>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-30-4-500-3 (Иван Купала).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B115685E-F74F-449F-9DE7-6001265B5E9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7BA6E5-A81E-4193-8612-C5080D5F0C7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,20 +957,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,6 +966,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1348,29 +1348,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -2019,8 +2019,14 @@
         <f t="shared" si="2"/>
         <v>4.4004523809523813E-2</v>
       </c>
-      <c r="H26" s="99"/>
-      <c r="I26" s="23"/>
+      <c r="H26" s="98">
+        <f>H25-F26</f>
+        <v>9267612</v>
+      </c>
+      <c r="I26" s="77">
+        <f t="shared" ref="I26" si="4">I25-G26</f>
+        <v>0.7355247619047619</v>
+      </c>
       <c r="J26" s="67"/>
       <c r="K26" s="67"/>
       <c r="L26" s="1"/>
@@ -2125,12 +2131,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2139,10 +2145,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
@@ -2157,11 +2163,11 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="109">
+      <c r="A37" s="103">
         <f>A20-F31</f>
         <v>9267612</v>
       </c>
-      <c r="B37" s="110"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="73">
         <f>1-G31</f>
         <v>0.7355247619047619</v>
@@ -2225,8 +2231,8 @@
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
       <c r="H41" s="55"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="102"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
@@ -2320,9 +2326,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="105"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="110"/>
       <c r="E51" s="61"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2339,8 +2345,8 @@
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
       <c r="H52" s="55"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="108"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="102"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
@@ -2351,8 +2357,8 @@
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="57"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
@@ -2363,8 +2369,8 @@
       <c r="F54" s="59"/>
       <c r="G54" s="59"/>
       <c r="H54" s="59"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
@@ -2377,18 +2383,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="102"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="102"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2396,11 +2407,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
